--- a/medicine/Enfance/Albert_Szerman/Albert_Szerman.xlsx
+++ b/medicine/Enfance/Albert_Szerman/Albert_Szerman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Szerman (né en 1936 à Paris) est un orphelin juif français, âgé de 8 ans, qui est le seul enfant à survivre à la Rafle de La Varenne-Saint-Hilaire du 22 juillet 1944. Il deviendra un témoin de la Shoah.
 </t>
@@ -511,12 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Albert Szerman est né en 1936 à Paris. Il est le fils de Joseph Szerman et de Rywka Szerman (née Basz), originaires de Pologne. Joseph Szerman est né le 1er janvier 1908 à Zwolin, en Pologne. Rywka Basz est née le 7 mars 1909 à Varsovie, en Pologne[1]. Ils travaillent comme tailleurs à domicile. Ils habitent au 29, Avenue du Général-Michel-Bizot, dans le 12e arrondissement de Paris.
-Rafle du Vélodrome d'Hiver
-Les parents d'Albert Szerman sont arrêtés à leur domicile, le 16 juillet 1942, lors de la Rafle du Vélodrome d'Hiver. Ils sont déportés par le Convoi No. 9, du Camp de Drancy vers Auschwitz[2],[3],[4],[5],[6],[7],[8].
-La Rafle de La Varenne-Saint-Hilaire</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Szerman est né en 1936 à Paris. Il est le fils de Joseph Szerman et de Rywka Szerman (née Basz), originaires de Pologne. Joseph Szerman est né le 1er janvier 1908 à Zwolin, en Pologne. Rywka Basz est née le 7 mars 1909 à Varsovie, en Pologne. Ils travaillent comme tailleurs à domicile. Ils habitent au 29, Avenue du Général-Michel-Bizot, dans le 12e arrondissement de Paris.
+</t>
         </is>
       </c>
     </row>
@@ -541,13 +553,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rafle du Vélodrome d'Hiver</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parents d'Albert Szerman sont arrêtés à leur domicile, le 16 juillet 1942, lors de la Rafle du Vélodrome d'Hiver. Ils sont déportés par le Convoi No. 9, du Camp de Drancy vers Auschwitz.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albert_Szerman</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Szerman</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Albert Szerman. Les Orphelins de La Varenne 1941-1944. Préface d'André Kaspi. Éditions L’Harmattan, 2004.
-Albert Szerman. Le 29e Kindle Edition[9]</t>
+Albert Szerman. Le 29e Kindle Edition</t>
         </is>
       </c>
     </row>
